--- a/data/receita_facil.xlsx
+++ b/data/receita_facil.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Chips de Maçã</t>
   </si>
@@ -50,21 +50,12 @@
     <t>https://www.facebook.com/CatracaLivre/videos/1153497351353941/</t>
   </si>
   <si>
-    <t>Bebidas para reidratar</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/CatracaLivre/videos/1153120041391672/</t>
   </si>
   <si>
-    <t>Flan de café</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/CatracaLivre/videos/1165259763511033/</t>
   </si>
   <si>
-    <t>Tortinha de iogurte</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/CatracaLivre/videos/1169903233046686/</t>
   </si>
   <si>
@@ -87,13 +78,67 @@
   </si>
   <si>
     <t>source</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/fikadikaoficial/videos/1102277903201772/</t>
+  </si>
+  <si>
+    <t>Torta de Bauru</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/fikadikaoficial/videos/1102269679869261/</t>
+  </si>
+  <si>
+    <t>Pipoca Doce de Brownie</t>
+  </si>
+  <si>
+    <t>Bolo Integral de Banana</t>
+  </si>
+  <si>
+    <t>Tortinha de Iogurte</t>
+  </si>
+  <si>
+    <t>Flan de Café</t>
+  </si>
+  <si>
+    <t>Bebidas para Reidratar</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/fikadikaoficial/videos/1102111996551696/</t>
+  </si>
+  <si>
+    <t>Sopa de Cebola</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/fikadikaoficial/videos/1101061989990030/</t>
+  </si>
+  <si>
+    <t>Delicioso Bolo de Cenoura</t>
+  </si>
+  <si>
+    <t>Crumble de Banana</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/fikadikaoficial/videos/1100197500076479/</t>
+  </si>
+  <si>
+    <t>Arroz de Carreteiro</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/fikadikaoficial/videos/1099909006771995/</t>
+  </si>
+  <si>
+    <t>Torta de Leite Ninho e Nutella</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/fikadikaoficial/videos/1096416060454623/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +150,14 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -147,16 +200,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,28 +528,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Plan1"/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" activeCellId="1" sqref="A1:B1 C1"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="56.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -489,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="str">
-        <f>CONCATENATE("http://conteudo.farolsign.com.br/receita_facil/v1/data/videos/sd/", LOWER(SUBSTITUTE(TRIM(A2)," ","-")), ".mp4")</f>
+        <f t="shared" ref="B2:B18" si="0">CONCATENATE("http://conteudo.farolsign.com.br/receita_facil/v1/data/videos/sd/", LOWER(SUBSTITUTE(TRIM(A2)," ","-")), ".mp4")</f>
         <v>http://conteudo.farolsign.com.br/receita_facil/v1/data/videos/sd/chips-de-maçã.mp4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -501,7 +569,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="str">
-        <f>CONCATENATE("http://conteudo.farolsign.com.br/receita_facil/v1/data/videos/sd/", LOWER(SUBSTITUTE(TRIM(A3)," ","-")), ".mp4")</f>
+        <f t="shared" si="0"/>
         <v>http://conteudo.farolsign.com.br/receita_facil/v1/data/videos/sd/empadinha-doce.mp4</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -513,7 +581,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="str">
-        <f>CONCATENATE("http://conteudo.farolsign.com.br/receita_facil/v1/data/videos/sd/", LOWER(SUBSTITUTE(TRIM(A4)," ","-")), ".mp4")</f>
+        <f t="shared" si="0"/>
         <v>http://conteudo.farolsign.com.br/receita_facil/v1/data/videos/sd/mousse-de-morango.mp4</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -525,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="str">
-        <f>CONCATENATE("http://conteudo.farolsign.com.br/receita_facil/v1/data/videos/sd/", LOWER(SUBSTITUTE(TRIM(A5)," ","-")), ".mp4")</f>
+        <f t="shared" si="0"/>
         <v>http://conteudo.farolsign.com.br/receita_facil/v1/data/videos/sd/lanche-refrescante.mp4</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -534,66 +602,165 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>http://conteudo.farolsign.com.br/receita_facil/v1/data/videos/sd/bebidas-para-reidratar.mp4</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B6" s="1" t="str">
-        <f>CONCATENATE("http://conteudo.farolsign.com.br/receita_facil/v1/data/videos/sd/", LOWER(SUBSTITUTE(TRIM(A6)," ","-")), ".mp4")</f>
-        <v>http://conteudo.farolsign.com.br/receita_facil/v1/data/videos/sd/bebidas-para-reidratar.mp4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="str">
-        <f>CONCATENATE("http://conteudo.farolsign.com.br/receita_facil/v1/data/videos/sd/", LOWER(SUBSTITUTE(TRIM(A7)," ","-")), ".mp4")</f>
+        <f t="shared" si="0"/>
         <v>http://conteudo.farolsign.com.br/receita_facil/v1/data/videos/sd/flan-de-café.mp4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1" t="str">
-        <f>CONCATENATE("http://conteudo.farolsign.com.br/receita_facil/v1/data/videos/sd/", LOWER(SUBSTITUTE(TRIM(A8)," ","-")), ".mp4")</f>
+        <f t="shared" si="0"/>
         <v>http://conteudo.farolsign.com.br/receita_facil/v1/data/videos/sd/tortinha-de-iogurte.mp4</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="str">
-        <f>CONCATENATE("http://conteudo.farolsign.com.br/receita_facil/v1/data/videos/sd/", LOWER(SUBSTITUTE(TRIM(A9)," ","-")), ".mp4")</f>
+        <f t="shared" si="0"/>
         <v>http://conteudo.farolsign.com.br/receita_facil/v1/data/videos/sd/gelado-de-frutas-vermelhas.mp4</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="str">
-        <f>CONCATENATE("http://conteudo.farolsign.com.br/receita_facil/v1/data/videos/sd/", LOWER(SUBSTITUTE(TRIM(A10)," ","-")), ".mp4")</f>
+        <f t="shared" si="0"/>
         <v>http://conteudo.farolsign.com.br/receita_facil/v1/data/videos/sd/nuggets-caseiro.mp4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>http://conteudo.farolsign.com.br/receita_facil/v1/data/videos/sd/bolo-integral-de-banana.mp4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>http://conteudo.farolsign.com.br/receita_facil/v1/data/videos/sd/torta-de-bauru.mp4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>http://conteudo.farolsign.com.br/receita_facil/v1/data/videos/sd/pipoca-doce-de-brownie.mp4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>http://conteudo.farolsign.com.br/receita_facil/v1/data/videos/sd/sopa-de-cebola.mp4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>http://conteudo.farolsign.com.br/receita_facil/v1/data/videos/sd/delicioso-bolo-de-cenoura.mp4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>http://conteudo.farolsign.com.br/receita_facil/v1/data/videos/sd/crumble-de-banana.mp4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>http://conteudo.farolsign.com.br/receita_facil/v1/data/videos/sd/arroz-de-carreteiro.mp4</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>http://conteudo.farolsign.com.br/receita_facil/v1/data/videos/sd/torta-de-leite-ninho-e-nutella.mp4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>